--- a/Laba7/Кейсы.xlsx
+++ b/Laba7/Кейсы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuri\Desktop\Документы от вуза\4_Для учебы\5 cем\Тестирование и отладка программного обеспечения\Лабы\AllLabs\Laba7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C201DA-429E-48DD-AB31-95C20A7112C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E749EB-E40F-4622-8FCB-3F671568683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{7C63F74E-E3BF-4476-8420-7C5CA5A32502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="2" xr2:uid="{7C63F74E-E3BF-4476-8420-7C5CA5A32502}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -284,25 +284,175 @@
     <t xml:space="preserve"> Подгрузить параметры квадратного уравнения</t>
   </si>
   <si>
-    <t>Провека корректности работы алгоритма валидации E-mail</t>
-  </si>
-  <si>
     <t>Необходимо проверить работоспособность метода проверки корректности e-mail</t>
   </si>
   <si>
     <t>Массив строк с e-mail адресами</t>
   </si>
   <si>
-    <t>1) Подгрузить файл с e-mail адресами</t>
-  </si>
-  <si>
-    <t>Будет создан экземпляр класса MailAddress</t>
-  </si>
-  <si>
     <t>Вася</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Проверка корректности работы алгоритма валидации E-mail</t>
+  </si>
+  <si>
+    <t>Провека корректности работы алгоритма валидации одной части ФИО</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода проверки корректности ввода Имени/Фамили/Отчества</t>
+  </si>
+  <si>
+    <t>Массив строк, содержащих одну часть из ФИО</t>
+  </si>
+  <si>
+    <t>1) Подгрузить файл с e-mail адресами 2) Запустить тест</t>
+  </si>
+  <si>
+    <t>1) Подгрузить файл с частями ФИО 2) Запустить тест</t>
+  </si>
+  <si>
+    <t>Метод проверки вернет True в случае, если данные корректны</t>
+  </si>
+  <si>
+    <t>Проверка корректности работы алгоритма валидации номера телефона</t>
+  </si>
+  <si>
+    <t>Массив строк, содержащий номера телефонов</t>
+  </si>
+  <si>
+    <t>1) Подгрузить файл с номерами телефонов 2) Запустить тест</t>
+  </si>
+  <si>
+    <t>В случае успешного создания MailAddress вернётся true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо проверить работоспособность метода внесения пользователя вручную </t>
+  </si>
+  <si>
+    <t>Массив строк-команд</t>
+  </si>
+  <si>
+    <t>Пользователь добавится в список</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить алгоритм добавления пользователя вручную </t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода проверки корректности номера телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо проверить работоспособность метода внесения пользователя с помощью мастера </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) ввести команду из массива </t>
+  </si>
+  <si>
+    <t>1) Ввести команду adduser 2) Ввести Фамилию 3) Ввести Имя 4) Ввести Отчество 5) Ввести E-mail 6) Ввести телефон 7) Подтвердить ввод</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода внесения пользователя с помощью мастера когда пользователь допускает ошибку и замечает её</t>
+  </si>
+  <si>
+    <t>1) Ввести команду adduser 2) Ввести Фамилию 3) Ввести Имя 4) Ввести Отчество 5) Ввести E-mail 6) Ввести телефон 7) указать что имеется ошибка 8) повторить 1-6 9) подтвердить ввод</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода внесения пользователя с помощью мастера когда пользователь допускает ошибку и не замечает её</t>
+  </si>
+  <si>
+    <t>1) Ввести команду adduser 2) Ввести Фамилию 3) Ввести Имя 4) Ввести Отчество 5) Ввести E-mail 6) Ввести телефон 7) указать все корректно 8) повторить 1-6 9) подтвердить ввод</t>
+  </si>
+  <si>
+    <t>Пользователь НЕ добавится в список. Программа будет требовать корректные данные пока они не будут предоставлены</t>
+  </si>
+  <si>
+    <t>Проверить алгоритм изменения пользователя</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода по изменению записи в базе данных вручную</t>
+  </si>
+  <si>
+    <t>Изменятся данные пользователя</t>
+  </si>
+  <si>
+    <t>Проверить алгоритм добавления пользователя мастером с ошибкой</t>
+  </si>
+  <si>
+    <t>Проверить алгоритм изменения пользователя мастером</t>
+  </si>
+  <si>
+    <t>Массивы строк с данными тестовых пользователей</t>
+  </si>
+  <si>
+    <t>Массивы строк с именами и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Массивы строк с фамилиями и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Массивы строк разным отчеством и xml с базой данных</t>
+  </si>
+  <si>
+    <t>массивы строк с телефонами и xml с базой данных</t>
+  </si>
+  <si>
+    <t>массивы строк с адресами электронной почты и xml с базой данных</t>
+  </si>
+  <si>
+    <t>массивы строк с разными вариантами отображения true false и xml с базой данных</t>
+  </si>
+  <si>
+    <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду changeuser ID, ID выбрать из предложенных, 4) выбрать Имя 5) ввести новое имя из массива 6) подтвердить корректность внесённых данных</t>
+  </si>
+  <si>
+    <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду changeuser ID, ID выбрать из предложенных, 4) выбрать Отчество 5) ввести новое отчество из массива 6) подтвердить корректность внесённых данных</t>
+  </si>
+  <si>
+    <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду changeuser ID, ID выбрать из предложенных, 4) выбрать Фамилию 5) ввести новую фамилию из массива 6) подтвердить корректность внесённых данных</t>
+  </si>
+  <si>
+    <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду changeuser ID, ID выбрать из предложенных, 4) выбрать Телефон 5) ввести новый телефон из массива 6) подтвердить корректность внесённых данных</t>
+  </si>
+  <si>
+    <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду changeuser ID, ID выбрать из предложенных, 4) выбрать E-mail 5) ввести новый e-mail из массива 6) подтвердить корректность внесённых данных</t>
+  </si>
+  <si>
+    <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду changeuser ID, ID выбрать из предложенных, 4) выбрать изменить статус на противоположный 5) ввести новое значение из массива 6) подтвердить корректность внесённых данных</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода по изменению записи в базе данных  на имени</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода по изменению записи в базе данных  на фамилии</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода по изменению записи в базе данных  на отчестве</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода по изменению записи в базе данных  на телефонах</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода по изменению записи в базе данных  на адресах e-mail</t>
+  </si>
+  <si>
+    <t>Необходимо проверить работоспособность метода по изменению записи в базе данных  на поле статус блокировки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо проверить работоспособность метода по удалению записи из базы данных </t>
+  </si>
+  <si>
+    <t>ID пользователя и xml с базой данных</t>
+  </si>
+  <si>
+    <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду deluser ID</t>
+  </si>
+  <si>
+    <t>Пользователь удалится</t>
+  </si>
+  <si>
+    <t>Проверить алгоритм удаления пользователя</t>
   </si>
 </sst>
 </file>
@@ -409,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -434,16 +584,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -453,6 +600,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1423,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE8AE7-8BD6-445A-A959-9442E5712DCE}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1585,7 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -1472,307 +1625,583 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H3" s="13">
         <v>45273</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="I3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="B5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="B7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="B8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="B9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="B10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="13">
+        <v>45273</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laba7/Кейсы.xlsx
+++ b/Laba7/Кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuri\Desktop\Документы от вуза\4_Для учебы\5 cем\Тестирование и отладка программного обеспечения\Лабы\AllLabs\Laba7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E749EB-E40F-4622-8FCB-3F671568683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A98BE8A-D25A-4242-8F37-4781D9C55E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="2" xr2:uid="{7C63F74E-E3BF-4476-8420-7C5CA5A32502}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Проверить алгоритм удаления пользователя</t>
+  </si>
+  <si>
+    <t>Массивы строк с данными тестовых пользователей и xml с базой данных</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -602,9 +611,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE8AE7-8BD6-445A-A959-9442E5712DCE}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1605,7 @@
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1638,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1658,7 +1670,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1690,7 +1702,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1722,7 +1734,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1753,8 +1765,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1785,8 +1797,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1817,8 +1829,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1850,7 +1862,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1860,7 +1872,7 @@
         <v>98</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>90</v>
@@ -1882,7 +1894,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1914,7 +1926,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1946,7 +1958,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1978,7 +1990,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2010,7 +2022,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2042,7 +2054,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2074,7 +2086,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2106,7 +2118,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="9"/>
@@ -2120,7 +2132,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="9"/>
@@ -2134,7 +2146,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="9"/>
@@ -2148,7 +2160,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="9"/>
@@ -2162,7 +2174,7 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="9"/>
@@ -2176,7 +2188,7 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="9"/>
@@ -2190,7 +2202,7 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="9"/>

--- a/Laba7/Кейсы.xlsx
+++ b/Laba7/Кейсы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuri\Desktop\Документы от вуза\4_Для учебы\5 cем\Тестирование и отладка программного обеспечения\Лабы\AllLabs\Laba7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A98BE8A-D25A-4242-8F37-4781D9C55E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDA1CB-41D4-44F9-BE52-A4D9A384F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="2" xr2:uid="{7C63F74E-E3BF-4476-8420-7C5CA5A32502}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="17145" activeTab="2" xr2:uid="{7C63F74E-E3BF-4476-8420-7C5CA5A32502}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Необходимо проверить работоспособность метода проверки корректности e-mail</t>
   </si>
   <si>
-    <t>Массив строк с e-mail адресами</t>
-  </si>
-  <si>
     <t>Вася</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>Необходимо проверить работоспособность метода проверки корректности ввода Имени/Фамили/Отчества</t>
   </si>
   <si>
-    <t>Массив строк, содержащих одну часть из ФИО</t>
-  </si>
-  <si>
     <t>1) Подгрузить файл с e-mail адресами 2) Запустить тест</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>Проверка корректности работы алгоритма валидации номера телефона</t>
   </si>
   <si>
-    <t>Массив строк, содержащий номера телефонов</t>
-  </si>
-  <si>
     <t>1) Подгрузить файл с номерами телефонов 2) Запустить тест</t>
   </si>
   <si>
@@ -386,24 +377,6 @@
     <t>Массивы строк с данными тестовых пользователей</t>
   </si>
   <si>
-    <t>Массивы строк с именами и xml с базой данных</t>
-  </si>
-  <si>
-    <t>Массивы строк с фамилиями и xml с базой данных</t>
-  </si>
-  <si>
-    <t>Массивы строк разным отчеством и xml с базой данных</t>
-  </si>
-  <si>
-    <t>массивы строк с телефонами и xml с базой данных</t>
-  </si>
-  <si>
-    <t>массивы строк с адресами электронной почты и xml с базой данных</t>
-  </si>
-  <si>
-    <t>массивы строк с разными вариантами отображения true false и xml с базой данных</t>
-  </si>
-  <si>
     <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду changeuser ID, ID выбрать из предложенных, 4) выбрать Имя 5) ввести новое имя из массива 6) подтвердить корректность внесённых данных</t>
   </si>
   <si>
@@ -443,9 +416,6 @@
     <t xml:space="preserve">Необходимо проверить работоспособность метода по удалению записи из базы данных </t>
   </si>
   <si>
-    <t>ID пользователя и xml с базой данных</t>
-  </si>
-  <si>
     <t>1) положить рядом с exe xml файл 2) ввести команду load 3) ввести команду deluser ID</t>
   </si>
   <si>
@@ -455,7 +425,40 @@
     <t>Проверить алгоритм удаления пользователя</t>
   </si>
   <si>
-    <t>Массивы строк с данными тестовых пользователей и xml с базой данных</t>
+    <t>Файл со строками с e-mail адресами</t>
+  </si>
+  <si>
+    <t>Файл со строками, содержащих одну часть из ФИО</t>
+  </si>
+  <si>
+    <t>Файл со строками, содержащий номера телефонов</t>
+  </si>
+  <si>
+    <t>Файл со строками с данными тестовых пользователей</t>
+  </si>
+  <si>
+    <t>Файл со строками с данными тестовых пользователей и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Файл со строками с именами и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Файл со строками с фамилиями и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Файл со строками разным отчеством и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Файл со строками с телефонами и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Файл со строками с адресами электронной почты и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Файл со строками с разными вариантами отображения true false и xml с базой данных</t>
+  </si>
+  <si>
+    <t>Файл со строками ID пользоватей и xml с базой данных</t>
   </si>
 </sst>
 </file>
@@ -1588,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE8AE7-8BD6-445A-A959-9442E5712DCE}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,19 +1645,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>58</v>
@@ -1663,10 +1666,10 @@
         <v>45273</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1674,19 +1677,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>58</v>
@@ -1695,10 +1698,10 @@
         <v>45273</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1706,19 +1709,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>58</v>
@@ -1727,10 +1730,10 @@
         <v>45273</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1738,19 +1741,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>58</v>
@@ -1759,10 +1762,10 @@
         <v>45273</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -1770,19 +1773,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>58</v>
@@ -1791,10 +1794,10 @@
         <v>45273</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1802,19 +1805,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>58</v>
@@ -1823,10 +1826,10 @@
         <v>45273</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1834,19 +1837,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>56</v>
@@ -1855,10 +1858,10 @@
         <v>45273</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1866,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>58</v>
@@ -1887,10 +1890,10 @@
         <v>45273</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -1898,19 +1901,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>58</v>
@@ -1919,10 +1922,10 @@
         <v>45273</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -1930,19 +1933,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>58</v>
@@ -1951,10 +1954,10 @@
         <v>45273</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -1962,19 +1965,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>58</v>
@@ -1983,10 +1986,10 @@
         <v>45273</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -1994,19 +1997,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>58</v>
@@ -2015,10 +2018,10 @@
         <v>45273</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -2026,19 +2029,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>58</v>
@@ -2047,10 +2050,10 @@
         <v>45273</v>
       </c>
       <c r="I14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="210" x14ac:dyDescent="0.25">
@@ -2058,19 +2061,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>58</v>
@@ -2079,10 +2082,10 @@
         <v>45273</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2090,19 +2093,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>58</v>
@@ -2111,10 +2114,10 @@
         <v>45273</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
